--- a/stock_historical_data/1wk/MTARTECH.NS.xlsx
+++ b/stock_historical_data/1wk/MTARTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P169"/>
+  <dimension ref="A1:Q170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4368,6 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4418,6 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4468,6 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4518,6 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4568,6 +4813,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4618,6 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4668,6 +4919,9 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4718,6 +4972,9 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4768,6 +5025,9 @@
       <c r="P86" t="n">
         <v>0</v>
       </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4818,6 +5078,9 @@
       <c r="P87" t="n">
         <v>0</v>
       </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4868,6 +5131,9 @@
       <c r="P88" t="n">
         <v>0</v>
       </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4918,6 +5184,9 @@
       <c r="P89" t="n">
         <v>0</v>
       </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4968,6 +5237,9 @@
       <c r="P90" t="n">
         <v>0</v>
       </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5018,6 +5290,9 @@
       <c r="P91" t="n">
         <v>0</v>
       </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5068,6 +5343,9 @@
       <c r="P92" t="n">
         <v>0</v>
       </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5118,6 +5396,9 @@
       <c r="P93" t="n">
         <v>0</v>
       </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5168,6 +5449,9 @@
       <c r="P94" t="n">
         <v>0</v>
       </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5218,6 +5502,9 @@
       <c r="P95" t="n">
         <v>0</v>
       </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5268,6 +5555,9 @@
       <c r="P96" t="n">
         <v>0</v>
       </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5318,6 +5608,9 @@
       <c r="P97" t="n">
         <v>0</v>
       </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5368,6 +5661,9 @@
       <c r="P98" t="n">
         <v>0</v>
       </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5418,6 +5714,9 @@
       <c r="P99" t="n">
         <v>0</v>
       </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5468,6 +5767,9 @@
       <c r="P100" t="n">
         <v>0</v>
       </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5518,6 +5820,9 @@
       <c r="P101" t="n">
         <v>0</v>
       </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5568,6 +5873,9 @@
       <c r="P102" t="n">
         <v>0</v>
       </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5618,6 +5926,9 @@
       <c r="P103" t="n">
         <v>0</v>
       </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5668,6 +5979,9 @@
       <c r="P104" t="n">
         <v>0</v>
       </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5718,6 +6032,9 @@
       <c r="P105" t="n">
         <v>0</v>
       </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5768,6 +6085,9 @@
       <c r="P106" t="n">
         <v>0</v>
       </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5818,6 +6138,9 @@
       <c r="P107" t="n">
         <v>0</v>
       </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5868,6 +6191,9 @@
       <c r="P108" t="n">
         <v>0</v>
       </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5918,6 +6244,9 @@
       <c r="P109" t="n">
         <v>0</v>
       </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5968,6 +6297,9 @@
       <c r="P110" t="n">
         <v>0</v>
       </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6018,6 +6350,9 @@
       <c r="P111" t="n">
         <v>0</v>
       </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6068,6 +6403,9 @@
       <c r="P112" t="n">
         <v>0</v>
       </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6118,6 +6456,9 @@
       <c r="P113" t="n">
         <v>0</v>
       </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6168,6 +6509,9 @@
       <c r="P114" t="n">
         <v>0</v>
       </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6218,6 +6562,9 @@
       <c r="P115" t="n">
         <v>0</v>
       </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6268,6 +6615,9 @@
       <c r="P116" t="n">
         <v>0</v>
       </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6318,6 +6668,9 @@
       <c r="P117" t="n">
         <v>0</v>
       </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6368,6 +6721,9 @@
       <c r="P118" t="n">
         <v>0</v>
       </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6418,6 +6774,9 @@
       <c r="P119" t="n">
         <v>0</v>
       </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6468,6 +6827,9 @@
       <c r="P120" t="n">
         <v>0</v>
       </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6518,6 +6880,9 @@
       <c r="P121" t="n">
         <v>0</v>
       </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6568,6 +6933,9 @@
       <c r="P122" t="n">
         <v>0</v>
       </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6618,6 +6986,9 @@
       <c r="P123" t="n">
         <v>0</v>
       </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6668,6 +7039,9 @@
       <c r="P124" t="n">
         <v>0</v>
       </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6718,6 +7092,9 @@
       <c r="P125" t="n">
         <v>0</v>
       </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6768,6 +7145,9 @@
       <c r="P126" t="n">
         <v>0</v>
       </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6818,6 +7198,9 @@
       <c r="P127" t="n">
         <v>0</v>
       </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6868,6 +7251,9 @@
       <c r="P128" t="n">
         <v>0</v>
       </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6918,6 +7304,9 @@
       <c r="P129" t="n">
         <v>0</v>
       </c>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6968,6 +7357,9 @@
       <c r="P130" t="n">
         <v>0</v>
       </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7018,6 +7410,9 @@
       <c r="P131" t="n">
         <v>0</v>
       </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7068,6 +7463,9 @@
       <c r="P132" t="n">
         <v>0</v>
       </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7118,6 +7516,9 @@
       <c r="P133" t="n">
         <v>0</v>
       </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7168,6 +7569,9 @@
       <c r="P134" t="n">
         <v>0</v>
       </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7218,6 +7622,9 @@
       <c r="P135" t="n">
         <v>0</v>
       </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7268,6 +7675,9 @@
       <c r="P136" t="n">
         <v>0</v>
       </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7318,6 +7728,9 @@
       <c r="P137" t="n">
         <v>0</v>
       </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7368,6 +7781,9 @@
       <c r="P138" t="n">
         <v>0</v>
       </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7418,6 +7834,9 @@
       <c r="P139" t="n">
         <v>0</v>
       </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7468,6 +7887,9 @@
       <c r="P140" t="n">
         <v>0</v>
       </c>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7518,6 +7940,9 @@
       <c r="P141" t="n">
         <v>0</v>
       </c>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7568,6 +7993,9 @@
       <c r="P142" t="n">
         <v>0</v>
       </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7618,6 +8046,9 @@
       <c r="P143" t="n">
         <v>0</v>
       </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7668,6 +8099,9 @@
       <c r="P144" t="n">
         <v>0</v>
       </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7718,6 +8152,9 @@
       <c r="P145" t="n">
         <v>0</v>
       </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7768,6 +8205,9 @@
       <c r="P146" t="n">
         <v>0</v>
       </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7818,6 +8258,9 @@
       <c r="P147" t="n">
         <v>0</v>
       </c>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7868,6 +8311,9 @@
       <c r="P148" t="n">
         <v>0</v>
       </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7918,6 +8364,9 @@
       <c r="P149" t="n">
         <v>0</v>
       </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7968,6 +8417,9 @@
       <c r="P150" t="n">
         <v>0</v>
       </c>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8018,6 +8470,9 @@
       <c r="P151" t="n">
         <v>0</v>
       </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8068,6 +8523,9 @@
       <c r="P152" t="n">
         <v>0</v>
       </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8118,6 +8576,9 @@
       <c r="P153" t="n">
         <v>0</v>
       </c>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8168,6 +8629,9 @@
       <c r="P154" t="n">
         <v>0</v>
       </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8218,6 +8682,9 @@
       <c r="P155" t="n">
         <v>0</v>
       </c>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8268,6 +8735,9 @@
       <c r="P156" t="n">
         <v>0</v>
       </c>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8318,6 +8788,9 @@
       <c r="P157" t="n">
         <v>0</v>
       </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8368,6 +8841,9 @@
       <c r="P158" t="n">
         <v>0</v>
       </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8418,6 +8894,9 @@
       <c r="P159" t="n">
         <v>0</v>
       </c>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8468,6 +8947,9 @@
       <c r="P160" t="n">
         <v>0</v>
       </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8518,6 +9000,9 @@
       <c r="P161" t="n">
         <v>0</v>
       </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8568,6 +9053,9 @@
       <c r="P162" t="n">
         <v>0</v>
       </c>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8618,6 +9106,9 @@
       <c r="P163" t="n">
         <v>0</v>
       </c>
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8668,6 +9159,9 @@
       <c r="P164" t="n">
         <v>0</v>
       </c>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8718,6 +9212,9 @@
       <c r="P165" t="n">
         <v>0</v>
       </c>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8768,6 +9265,9 @@
       <c r="P166" t="n">
         <v>0</v>
       </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8818,6 +9318,9 @@
       <c r="P167" t="n">
         <v>0</v>
       </c>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8868,6 +9371,9 @@
       <c r="P168" t="n">
         <v>0</v>
       </c>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8918,6 +9424,60 @@
       <c r="P169" t="n">
         <v>0</v>
       </c>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1880</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1880</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1835.300048828125</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1843.900024414062</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1843.900024414062</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I170" t="n">
+        <v>6</v>
+      </c>
+      <c r="J170" t="n">
+        <v>3</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>23</v>
+      </c>
+      <c r="O170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q170" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MTARTECH.NS.xlsx
+++ b/stock_historical_data/1wk/MTARTECH.NS.xlsx
@@ -9477,7 +9477,9 @@
       <c r="P170" t="n">
         <v>0</v>
       </c>
-      <c r="Q170" t="inlineStr"/>
+      <c r="Q170" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MTARTECH.NS.xlsx
+++ b/stock_historical_data/1wk/MTARTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q170"/>
+  <dimension ref="A1:R171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2111,7 +2203,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3118,7 +3267,10 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>1</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>1</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>2</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>1</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>2</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>1</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>2</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>1</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6724,6 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6989,6 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7042,6 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7095,6 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7148,6 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7201,6 +7581,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7254,6 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7307,6 +7693,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7360,6 +7749,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7413,6 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7466,6 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7519,6 +7917,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7572,6 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7625,6 +8029,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7678,6 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7731,6 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7784,6 +8197,9 @@
       <c r="Q138" t="n">
         <v>2</v>
       </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7837,6 +8253,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7890,6 +8309,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7943,6 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7996,6 +8421,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8049,6 +8477,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8102,6 +8533,9 @@
       <c r="Q144" t="n">
         <v>2</v>
       </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8155,6 +8589,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8208,6 +8645,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8261,6 +8701,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8314,6 +8757,9 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8367,6 +8813,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8420,6 +8869,9 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8473,6 +8925,9 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8526,6 +8981,9 @@
       <c r="Q152" t="n">
         <v>2</v>
       </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8579,6 +9037,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8632,6 +9093,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8685,6 +9149,9 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8738,6 +9205,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8791,6 +9261,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8844,6 +9317,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8897,6 +9373,9 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8950,6 +9429,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -9003,6 +9485,9 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9056,6 +9541,9 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -9109,6 +9597,9 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9162,6 +9653,9 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9215,6 +9709,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9268,6 +9765,9 @@
       <c r="Q166" t="n">
         <v>1</v>
       </c>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9321,6 +9821,9 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -9374,6 +9877,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9427,6 +9933,9 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9480,6 +9989,63 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1730</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1730</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1711</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1721</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1721</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I171" t="n">
+        <v>6</v>
+      </c>
+      <c r="J171" t="n">
+        <v>10</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>24</v>
+      </c>
+      <c r="O171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R171" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MTARTECH.NS.xlsx
+++ b/stock_historical_data/1wk/MTARTECH.NS.xlsx
@@ -10045,7 +10045,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
-      <c r="R171" t="inlineStr"/>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MTARTECH.NS.xlsx
+++ b/stock_historical_data/1wk/MTARTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R171"/>
+  <dimension ref="A1:R173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9869,7 +9869,7 @@
         <v>21</v>
       </c>
       <c r="O168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P168" t="n">
         <v>0</v>
@@ -10048,6 +10048,114 @@
       <c r="R171" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1862.800048828125</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1943.900024414062</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1854.849975585938</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1889.650024414062</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1889.650024414062</v>
+      </c>
+      <c r="G172" t="n">
+        <v>2461644</v>
+      </c>
+      <c r="H172" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I172" t="n">
+        <v>6</v>
+      </c>
+      <c r="J172" t="n">
+        <v>17</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>25</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1887.349975585938</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1918</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1831.099975585938</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1858.25</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1858.25</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1043058</v>
+      </c>
+      <c r="H173" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I173" t="n">
+        <v>6</v>
+      </c>
+      <c r="J173" t="n">
+        <v>24</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>26</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R173" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MTARTECH.NS.xlsx
+++ b/stock_historical_data/1wk/MTARTECH.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R173"/>
+  <dimension ref="A1:R208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R84" t="n">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -9981,7 +9981,7 @@
         <v>23</v>
       </c>
       <c r="O170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P170" t="n">
         <v>0</v>
@@ -10101,7 +10101,9 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
-      <c r="R172" t="inlineStr"/>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -10155,7 +10157,1829 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
-      <c r="R173" t="inlineStr"/>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1858.25</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2075.64990234375</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1840</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2001</v>
+      </c>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="n">
+        <v>3445705</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I174" t="n">
+        <v>7</v>
+      </c>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>27</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>2</v>
+      </c>
+      <c r="R174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2054</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1905</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1974.800048828125</v>
+      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="n">
+        <v>1844081</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I175" t="n">
+        <v>7</v>
+      </c>
+      <c r="J175" t="n">
+        <v>8</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>28</v>
+      </c>
+      <c r="O175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1984.849975585938</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1860</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1898.800048828125</v>
+      </c>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="n">
+        <v>976652</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I176" t="n">
+        <v>7</v>
+      </c>
+      <c r="J176" t="n">
+        <v>15</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>29</v>
+      </c>
+      <c r="O176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>1</v>
+      </c>
+      <c r="R176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1885</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1955</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1821.25</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1913.550048828125</v>
+      </c>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="n">
+        <v>1115130</v>
+      </c>
+      <c r="H177" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I177" t="n">
+        <v>7</v>
+      </c>
+      <c r="J177" t="n">
+        <v>22</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>30</v>
+      </c>
+      <c r="O177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1916</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1952.400024414062</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1850</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1864.199951171875</v>
+      </c>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="n">
+        <v>601199</v>
+      </c>
+      <c r="H178" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I178" t="n">
+        <v>7</v>
+      </c>
+      <c r="J178" t="n">
+        <v>29</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>31</v>
+      </c>
+      <c r="O178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1818</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1871.800048828125</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1755.550048828125</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1811.699951171875</v>
+      </c>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="n">
+        <v>776045</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I179" t="n">
+        <v>8</v>
+      </c>
+      <c r="J179" t="n">
+        <v>5</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>32</v>
+      </c>
+      <c r="O179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1812</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1819.800048828125</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1672.050048828125</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1713.75</v>
+      </c>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="n">
+        <v>1092271</v>
+      </c>
+      <c r="H180" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I180" t="n">
+        <v>8</v>
+      </c>
+      <c r="J180" t="n">
+        <v>12</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>33</v>
+      </c>
+      <c r="O180" t="n">
+        <v>2</v>
+      </c>
+      <c r="P180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1716.949951171875</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1845</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1716.949951171875</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1803.900024414062</v>
+      </c>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="n">
+        <v>911776</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I181" t="n">
+        <v>8</v>
+      </c>
+      <c r="J181" t="n">
+        <v>19</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>34</v>
+      </c>
+      <c r="O181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1810</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1860</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1775</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1826.300048828125</v>
+      </c>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="n">
+        <v>715397</v>
+      </c>
+      <c r="H182" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I182" t="n">
+        <v>8</v>
+      </c>
+      <c r="J182" t="n">
+        <v>26</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="n">
+        <v>35</v>
+      </c>
+      <c r="O182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1826.300048828125</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1842</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1770.800048828125</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1776.349975585938</v>
+      </c>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="n">
+        <v>463566</v>
+      </c>
+      <c r="H183" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I183" t="n">
+        <v>9</v>
+      </c>
+      <c r="J183" t="n">
+        <v>2</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>36</v>
+      </c>
+      <c r="O183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1780</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1752.650024414062</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1773.5</v>
+      </c>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="n">
+        <v>366229</v>
+      </c>
+      <c r="H184" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I184" t="n">
+        <v>9</v>
+      </c>
+      <c r="J184" t="n">
+        <v>9</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>37</v>
+      </c>
+      <c r="O184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1773.5</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1787.800048828125</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1702.300048828125</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1739.900024414062</v>
+      </c>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="n">
+        <v>473850</v>
+      </c>
+      <c r="H185" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I185" t="n">
+        <v>9</v>
+      </c>
+      <c r="J185" t="n">
+        <v>16</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" t="n">
+        <v>38</v>
+      </c>
+      <c r="O185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1769.949951171875</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1769.949951171875</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1718.550048828125</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1729.849975585938</v>
+      </c>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="n">
+        <v>533078</v>
+      </c>
+      <c r="H186" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I186" t="n">
+        <v>9</v>
+      </c>
+      <c r="J186" t="n">
+        <v>23</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>39</v>
+      </c>
+      <c r="O186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P186" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>1</v>
+      </c>
+      <c r="R186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1738.800048828125</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1757</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1670.449951171875</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1699.449951171875</v>
+      </c>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="n">
+        <v>338710</v>
+      </c>
+      <c r="H187" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I187" t="n">
+        <v>9</v>
+      </c>
+      <c r="J187" t="n">
+        <v>30</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" t="n">
+        <v>40</v>
+      </c>
+      <c r="O187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1691</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1841.949951171875</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1624.550048828125</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1807.800048828125</v>
+      </c>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="n">
+        <v>814088</v>
+      </c>
+      <c r="H188" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I188" t="n">
+        <v>10</v>
+      </c>
+      <c r="J188" t="n">
+        <v>7</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>41</v>
+      </c>
+      <c r="O188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1812</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1823</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1657.099975585938</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1681.400024414062</v>
+      </c>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="n">
+        <v>1056610</v>
+      </c>
+      <c r="H189" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I189" t="n">
+        <v>10</v>
+      </c>
+      <c r="J189" t="n">
+        <v>14</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" t="n">
+        <v>42</v>
+      </c>
+      <c r="O189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>0</v>
+      </c>
+      <c r="R189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1686.949951171875</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1709.800048828125</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1499.300048828125</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1507.599975585938</v>
+      </c>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="n">
+        <v>840179</v>
+      </c>
+      <c r="H190" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I190" t="n">
+        <v>10</v>
+      </c>
+      <c r="J190" t="n">
+        <v>21</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="n">
+        <v>43</v>
+      </c>
+      <c r="O190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1514.300048828125</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1689.949951171875</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1495.400024414062</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1675.800048828125</v>
+      </c>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="n">
+        <v>740239</v>
+      </c>
+      <c r="H191" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I191" t="n">
+        <v>10</v>
+      </c>
+      <c r="J191" t="n">
+        <v>28</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>44</v>
+      </c>
+      <c r="O191" t="n">
+        <v>2</v>
+      </c>
+      <c r="P191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>0</v>
+      </c>
+      <c r="R191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1674.150024414062</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1694</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1596.599975585938</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1618.349975585938</v>
+      </c>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="n">
+        <v>475804</v>
+      </c>
+      <c r="H192" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I192" t="n">
+        <v>11</v>
+      </c>
+      <c r="J192" t="n">
+        <v>4</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>45</v>
+      </c>
+      <c r="O192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>0</v>
+      </c>
+      <c r="R192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1605</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1629.449951171875</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1530.550048828125</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1572.25</v>
+      </c>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="n">
+        <v>388461</v>
+      </c>
+      <c r="H193" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I193" t="n">
+        <v>11</v>
+      </c>
+      <c r="J193" t="n">
+        <v>11</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" t="n">
+        <v>46</v>
+      </c>
+      <c r="O193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>0</v>
+      </c>
+      <c r="R193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1599.900024414062</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1782.949951171875</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1557</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1744.050048828125</v>
+      </c>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="n">
+        <v>1527185</v>
+      </c>
+      <c r="H194" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I194" t="n">
+        <v>11</v>
+      </c>
+      <c r="J194" t="n">
+        <v>18</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>47</v>
+      </c>
+      <c r="O194" t="n">
+        <v>0</v>
+      </c>
+      <c r="P194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>0</v>
+      </c>
+      <c r="R194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1758.699951171875</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1810</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1744.050048828125</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1787.650024414062</v>
+      </c>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="n">
+        <v>510578</v>
+      </c>
+      <c r="H195" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I195" t="n">
+        <v>11</v>
+      </c>
+      <c r="J195" t="n">
+        <v>25</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>48</v>
+      </c>
+      <c r="O195" t="n">
+        <v>0</v>
+      </c>
+      <c r="P195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>0</v>
+      </c>
+      <c r="R195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1787.650024414062</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1824.5</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1746</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1762.699951171875</v>
+      </c>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="n">
+        <v>456696</v>
+      </c>
+      <c r="H196" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I196" t="n">
+        <v>12</v>
+      </c>
+      <c r="J196" t="n">
+        <v>2</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" t="n">
+        <v>49</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1</v>
+      </c>
+      <c r="P196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>0</v>
+      </c>
+      <c r="R196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1762.050048828125</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1782.349975585938</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1626.599975585938</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1638.5</v>
+      </c>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="n">
+        <v>2983562</v>
+      </c>
+      <c r="H197" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I197" t="n">
+        <v>12</v>
+      </c>
+      <c r="J197" t="n">
+        <v>9</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>50</v>
+      </c>
+      <c r="O197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>1</v>
+      </c>
+      <c r="R197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1624</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1777</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1546.25</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1722.199951171875</v>
+      </c>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="n">
+        <v>2448292</v>
+      </c>
+      <c r="H198" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I198" t="n">
+        <v>12</v>
+      </c>
+      <c r="J198" t="n">
+        <v>16</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>51</v>
+      </c>
+      <c r="O198" t="n">
+        <v>0</v>
+      </c>
+      <c r="P198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1722.199951171875</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1739.400024414062</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1625.5</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1668.099975585938</v>
+      </c>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="n">
+        <v>530631</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I199" t="n">
+        <v>12</v>
+      </c>
+      <c r="J199" t="n">
+        <v>23</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>52</v>
+      </c>
+      <c r="O199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>0</v>
+      </c>
+      <c r="R199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1643.099975585938</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1782.900024414062</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1641.75</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1771.150024414062</v>
+      </c>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="n">
+        <v>868014</v>
+      </c>
+      <c r="H200" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I200" t="n">
+        <v>12</v>
+      </c>
+      <c r="J200" t="n">
+        <v>30</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+      <c r="O200" t="n">
+        <v>0</v>
+      </c>
+      <c r="P200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>0</v>
+      </c>
+      <c r="R200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1778.800048828125</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1778.800048828125</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1655</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1676.300048828125</v>
+      </c>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="n">
+        <v>1048678</v>
+      </c>
+      <c r="H201" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>6</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>2</v>
+      </c>
+      <c r="O201" t="n">
+        <v>0</v>
+      </c>
+      <c r="P201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>0</v>
+      </c>
+      <c r="R201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1676.300048828125</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1698</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1560</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1691</v>
+      </c>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="n">
+        <v>555303</v>
+      </c>
+      <c r="H202" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>13</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>3</v>
+      </c>
+      <c r="O202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>2</v>
+      </c>
+      <c r="R202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1694.949951171875</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1729.300048828125</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1587.349975585938</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1599.550048828125</v>
+      </c>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="n">
+        <v>453645</v>
+      </c>
+      <c r="H203" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>20</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>4</v>
+      </c>
+      <c r="O203" t="n">
+        <v>0</v>
+      </c>
+      <c r="P203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>0</v>
+      </c>
+      <c r="R203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1641.900024414062</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1470</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1624.099975585938</v>
+      </c>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="n">
+        <v>559437</v>
+      </c>
+      <c r="H204" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>27</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>5</v>
+      </c>
+      <c r="O204" t="n">
+        <v>0</v>
+      </c>
+      <c r="P204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>0</v>
+      </c>
+      <c r="R204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1610</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1610.050048828125</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1542.099975585938</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1547.199951171875</v>
+      </c>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="n">
+        <v>322026</v>
+      </c>
+      <c r="H205" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I205" t="n">
+        <v>2</v>
+      </c>
+      <c r="J205" t="n">
+        <v>3</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>6</v>
+      </c>
+      <c r="O205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1545</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1559.949951171875</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1344.199951171875</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1351.099975585938</v>
+      </c>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="n">
+        <v>592969</v>
+      </c>
+      <c r="H206" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I206" t="n">
+        <v>2</v>
+      </c>
+      <c r="J206" t="n">
+        <v>10</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>7</v>
+      </c>
+      <c r="O206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1327.050048828125</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1510.25</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1206.75</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1415.849975585938</v>
+      </c>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="n">
+        <v>2527657</v>
+      </c>
+      <c r="H207" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I207" t="n">
+        <v>2</v>
+      </c>
+      <c r="J207" t="n">
+        <v>17</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>8</v>
+      </c>
+      <c r="O207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1398.900024414062</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1435.25</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1282</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1287.900024414062</v>
+      </c>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="n">
+        <v>408434</v>
+      </c>
+      <c r="H208" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I208" t="n">
+        <v>2</v>
+      </c>
+      <c r="J208" t="n">
+        <v>24</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>9</v>
+      </c>
+      <c r="O208" t="n">
+        <v>0</v>
+      </c>
+      <c r="P208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>0</v>
+      </c>
+      <c r="R208" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MTARTECH.NS.xlsx
+++ b/stock_historical_data/1wk/MTARTECH.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R208"/>
+  <dimension ref="A1:R212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10211,7 +10211,9 @@
       <c r="Q174" t="n">
         <v>2</v>
       </c>
-      <c r="R174" t="inlineStr"/>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -10263,7 +10265,9 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
-      <c r="R175" t="inlineStr"/>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -10315,7 +10319,9 @@
       <c r="Q176" t="n">
         <v>1</v>
       </c>
-      <c r="R176" t="inlineStr"/>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -10367,7 +10373,9 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
-      <c r="R177" t="inlineStr"/>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -10419,7 +10427,9 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
-      <c r="R178" t="inlineStr"/>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -10471,7 +10481,9 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
-      <c r="R179" t="inlineStr"/>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -10523,7 +10535,9 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
-      <c r="R180" t="inlineStr"/>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -10575,7 +10589,9 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
-      <c r="R181" t="inlineStr"/>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -10627,7 +10643,9 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
-      <c r="R182" t="inlineStr"/>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -10679,7 +10697,9 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
-      <c r="R183" t="inlineStr"/>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -10731,7 +10751,9 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
-      <c r="R184" t="inlineStr"/>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -10783,7 +10805,9 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
-      <c r="R185" t="inlineStr"/>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -10835,7 +10859,9 @@
       <c r="Q186" t="n">
         <v>1</v>
       </c>
-      <c r="R186" t="inlineStr"/>
+      <c r="R186" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -10887,7 +10913,9 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
-      <c r="R187" t="inlineStr"/>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -10939,7 +10967,9 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
-      <c r="R188" t="inlineStr"/>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -10991,7 +11021,9 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
-      <c r="R189" t="inlineStr"/>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -11043,7 +11075,9 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
-      <c r="R190" t="inlineStr"/>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -11095,7 +11129,9 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
-      <c r="R191" t="inlineStr"/>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -11147,7 +11183,9 @@
       <c r="Q192" t="n">
         <v>0</v>
       </c>
-      <c r="R192" t="inlineStr"/>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -11199,7 +11237,9 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
-      <c r="R193" t="inlineStr"/>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -11251,7 +11291,9 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
-      <c r="R194" t="inlineStr"/>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -11303,7 +11345,9 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
-      <c r="R195" t="inlineStr"/>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -11355,7 +11399,9 @@
       <c r="Q196" t="n">
         <v>0</v>
       </c>
-      <c r="R196" t="inlineStr"/>
+      <c r="R196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -11407,7 +11453,9 @@
       <c r="Q197" t="n">
         <v>1</v>
       </c>
-      <c r="R197" t="inlineStr"/>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -11459,7 +11507,9 @@
       <c r="Q198" t="n">
         <v>0</v>
       </c>
-      <c r="R198" t="inlineStr"/>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -11511,7 +11561,9 @@
       <c r="Q199" t="n">
         <v>0</v>
       </c>
-      <c r="R199" t="inlineStr"/>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -11563,7 +11615,9 @@
       <c r="Q200" t="n">
         <v>0</v>
       </c>
-      <c r="R200" t="inlineStr"/>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -11615,7 +11669,9 @@
       <c r="Q201" t="n">
         <v>0</v>
       </c>
-      <c r="R201" t="inlineStr"/>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -11667,7 +11723,9 @@
       <c r="Q202" t="n">
         <v>2</v>
       </c>
-      <c r="R202" t="inlineStr"/>
+      <c r="R202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -11719,7 +11777,9 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
-      <c r="R203" t="inlineStr"/>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -11771,7 +11831,9 @@
       <c r="Q204" t="n">
         <v>0</v>
       </c>
-      <c r="R204" t="inlineStr"/>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -11823,7 +11885,9 @@
       <c r="Q205" t="n">
         <v>0</v>
       </c>
-      <c r="R205" t="inlineStr"/>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -11875,7 +11939,9 @@
       <c r="Q206" t="n">
         <v>0</v>
       </c>
-      <c r="R206" t="inlineStr"/>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -11919,7 +11985,7 @@
         <v>8</v>
       </c>
       <c r="O207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P207" t="n">
         <v>0</v>
@@ -11927,7 +11993,9 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
-      <c r="R207" t="inlineStr"/>
+      <c r="R207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -11979,7 +12047,217 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
-      <c r="R208" t="inlineStr"/>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1287.900024414062</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1399.900024414062</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1225.150024414062</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1380.050048828125</v>
+      </c>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="n">
+        <v>699116</v>
+      </c>
+      <c r="H209" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I209" t="n">
+        <v>3</v>
+      </c>
+      <c r="J209" t="n">
+        <v>3</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>10</v>
+      </c>
+      <c r="O209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>0</v>
+      </c>
+      <c r="R209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1370</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1390</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1252</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1257.599975585938</v>
+      </c>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="n">
+        <v>476025</v>
+      </c>
+      <c r="H210" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I210" t="n">
+        <v>3</v>
+      </c>
+      <c r="J210" t="n">
+        <v>10</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>11</v>
+      </c>
+      <c r="O210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>0</v>
+      </c>
+      <c r="R210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1257.599975585938</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1362.75</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1221</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1344</v>
+      </c>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="n">
+        <v>692297</v>
+      </c>
+      <c r="H211" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I211" t="n">
+        <v>3</v>
+      </c>
+      <c r="J211" t="n">
+        <v>17</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>12</v>
+      </c>
+      <c r="O211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1377.300048828125</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1486</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1275</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1281.150024414062</v>
+      </c>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="n">
+        <v>1768628</v>
+      </c>
+      <c r="H212" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I212" t="n">
+        <v>3</v>
+      </c>
+      <c r="J212" t="n">
+        <v>24</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N212" t="n">
+        <v>13</v>
+      </c>
+      <c r="O212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>0</v>
+      </c>
+      <c r="R212" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
